--- a/effect_times_calculator.xlsx
+++ b/effect_times_calculator.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
   <si>
     <t>values</t>
   </si>
   <si>
     <t>offset 1</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>offset 2</t>
@@ -81,7 +78,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +89,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -128,6 +131,13 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -215,13 +225,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -273,73 +276,76 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -655,57 +661,57 @@
     <col min="1" max="1" style="21" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="21" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="21" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="23" width="10.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="23" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="23" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="24" width="10.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="24" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -713,128 +719,126 @@
         <v>1</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="D4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="D5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="D6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="11">
         <v>30</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="12">
         <f>ROUNDUP($E$3/$C9,0)*$C9</f>
@@ -870,12 +874,12 @@
         <f>N9+$C9</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="7" t="s">
-        <v>12</v>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E10" s="15">
         <f>ROUNDUP($E$4/$C9,0)*$C9</f>
@@ -911,12 +915,12 @@
         <f>N10+$C9</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="7" t="s">
-        <v>13</v>
+      <c r="D11" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E11" s="15">
         <f>ROUNDUP($E$5/$C9,0)*$C9</f>
@@ -956,8 +960,8 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="9" t="s">
-        <v>14</v>
+      <c r="D12" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="E12" s="15">
         <f>ROUNDUP($E$6/$C9,0)*$C9</f>
@@ -993,16 +997,16 @@
         <f>N12+$C9</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="11">
         <v>45</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="12">
         <f>ROUNDUP($E$3/$C13,0)*$C13</f>
@@ -1038,12 +1042,12 @@
         <f>N13+$C13</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="7" t="s">
-        <v>12</v>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E14" s="15">
         <f>ROUNDUP($E$4/$C13,0)*$C13</f>
@@ -1079,12 +1083,12 @@
         <f>N14+$C13</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="7" t="s">
-        <v>13</v>
+      <c r="D15" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E15" s="15">
         <f>ROUNDUP($E$5/$C13,0)*$C13</f>
@@ -1124,8 +1128,8 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="9" t="s">
-        <v>14</v>
+      <c r="D16" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="E16" s="15">
         <f>ROUNDUP($E$6/$C13,0)*$C13</f>
@@ -1161,16 +1165,16 @@
         <f>N16+$C13</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="11">
         <f>60+40</f>
       </c>
       <c r="D17" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="12">
         <f>ROUNDUP($E$3/$C17,0)*$C17</f>
@@ -1206,12 +1210,12 @@
         <f>N17+$C17</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="7" t="s">
-        <v>12</v>
+      <c r="D18" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E18" s="15">
         <f>ROUNDUP($E$4/$C17,0)*$C17</f>
@@ -1247,12 +1251,12 @@
         <f>N18+$C17</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="7" t="s">
-        <v>13</v>
+      <c r="D19" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E19" s="15">
         <f>ROUNDUP($E$5/$C17,0)*$C17</f>
@@ -1292,8 +1296,8 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="9" t="s">
-        <v>14</v>
+      <c r="D20" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="E20" s="15">
         <f>ROUNDUP($E$6/$C17,0)*$C17</f>
@@ -1329,16 +1333,16 @@
         <f>N20+$C17</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="20.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="11">
         <f>60*2</f>
       </c>
       <c r="D21" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="12">
         <f>ROUNDUP($E$3/$C21,0)*$C21</f>
@@ -1374,12 +1378,12 @@
         <f>N21+$C21</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="7" t="s">
-        <v>12</v>
+      <c r="D22" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E22" s="15">
         <f>ROUNDUP($E$4/$C21,0)*$C21</f>
@@ -1415,12 +1419,12 @@
         <f>N22+$C21</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="7" t="s">
-        <v>13</v>
+      <c r="D23" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E23" s="15">
         <f>ROUNDUP($E$5/$C21,0)*$C21</f>
@@ -1460,8 +1464,8 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="9" t="s">
-        <v>14</v>
+      <c r="D24" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="E24" s="15">
         <f>ROUNDUP($E$6/$C21,0)*$C21</f>
@@ -1497,16 +1501,16 @@
         <f>N24+$C21</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="20.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="11">
         <f>60*3</f>
       </c>
       <c r="D25" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" s="12">
         <f>ROUNDUP($E$3/$C25,0)*$C25</f>
@@ -1542,12 +1546,12 @@
         <f>N25+$C25</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="7" t="s">
-        <v>12</v>
+      <c r="D26" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E26" s="15">
         <f>ROUNDUP($E$4/$C25,0)*$C25</f>
@@ -1583,12 +1587,12 @@
         <f>N26+$C25</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="7" t="s">
-        <v>13</v>
+      <c r="D27" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E27" s="15">
         <f>ROUNDUP($E$5/$C25,0)*$C25</f>
@@ -1628,8 +1632,8 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="9" t="s">
-        <v>14</v>
+      <c r="D28" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="E28" s="15">
         <f>ROUNDUP($E$6/$C25,0)*$C25</f>
@@ -1665,16 +1669,16 @@
         <f>N28+$C25</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="20.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" s="11">
         <f>60*5</f>
       </c>
       <c r="D29" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E29" s="12">
         <f>ROUNDUP($E$3/$C29,0)*$C29</f>
@@ -1710,12 +1714,12 @@
         <f>N29+$C29</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="7" t="s">
-        <v>12</v>
+      <c r="D30" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E30" s="15">
         <f>ROUNDUP($E$4/$C29,0)*$C29</f>
@@ -1751,12 +1755,12 @@
         <f>N30+$C29</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="7" t="s">
-        <v>13</v>
+      <c r="D31" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E31" s="15">
         <f>ROUNDUP($E$5/$C29,0)*$C29</f>
@@ -1792,12 +1796,12 @@
         <f>N31+$C29</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="9" t="s">
-        <v>14</v>
+      <c r="D32" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="E32" s="18">
         <f>ROUNDUP($E$6/$C29,0)*$C29</f>

--- a/effect_times_calculator.xlsx
+++ b/effect_times_calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajdep\AppData\Roaming\.minecraft\saves\test (1)\datapacks\DeathCurse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638CAF22-83B8-4923-A037-7E84F4435AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA4894A-D67E-4C80-B92B-0E1EC1A25160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7335" yWindow="1665" windowWidth="29220" windowHeight="17760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33090" yWindow="1065" windowWidth="29220" windowHeight="17760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -235,15 +235,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -258,43 +252,43 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,107 +597,106 @@
   <dimension ref="B1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
-    <col min="5" max="14" width="9.140625" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="9.140625" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="C1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
     </row>
     <row r="2" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
     </row>
     <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="E3" s="33" t="s">
+      <c r="C3" s="16"/>
+      <c r="E3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="35"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="21"/>
     </row>
     <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="E4" s="36" t="s">
+      <c r="C4" s="17"/>
+      <c r="E4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="32"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="24"/>
     </row>
     <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="E5" s="26" t="s">
+      <c r="C5" s="17"/>
+      <c r="E5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
       <c r="N5" s="27"/>
     </row>
     <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="24"/>
+      <c r="C6" s="18"/>
       <c r="E6" s="28"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
@@ -716,1193 +709,1175 @@
       <c r="N6" s="30"/>
     </row>
     <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+      <c r="C7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
     </row>
     <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
     </row>
     <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="6">
         <v>30</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="3">
         <v>1</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="7">
         <f>ROUNDUP($C$3/$C9,0)*$C9-$C$3</f>
         <v>0</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="7">
         <f>$E9+$C9</f>
         <v>30</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="7">
         <f t="shared" ref="G9:N9" si="0">F9+$C9</f>
         <v>60</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="7">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="7">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="7">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="8">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="8">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="8">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N9" s="9">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="10">
+      <c r="C10" s="1"/>
+      <c r="D10" s="4">
         <v>2</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="10">
         <f>ROUNDUP($C$4/$C9,0)*$C9-$C$4</f>
         <v>0</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="10">
         <f>$E10+$C9</f>
         <v>30</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="10">
         <f t="shared" ref="G10:N10" si="1">F10+$C9</f>
         <v>60</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="10">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="10">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="10">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="11">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="11">
         <f t="shared" si="1"/>
         <v>210</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="11">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="N10" s="18">
+      <c r="N10" s="12">
         <f t="shared" si="1"/>
         <v>270</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="10">
+      <c r="C11" s="1"/>
+      <c r="D11" s="4">
         <v>3</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="10">
         <f>ROUNDUP($C$5/$C9,0)*$C9-$C$5</f>
         <v>0</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="10">
         <f>$E11+$C9</f>
         <v>30</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="10">
         <f t="shared" ref="G11:N11" si="2">F11+$C9</f>
         <v>60</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="10">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="10">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="10">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="11">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="11">
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="11">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N11" s="12">
         <f t="shared" si="2"/>
         <v>270</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="11">
+      <c r="C12" s="1"/>
+      <c r="D12" s="5">
         <v>4</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="13">
         <f>ROUNDUP($C$6/$C9,0)*$C9-$C$6</f>
         <v>0</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="13">
         <f>$E12+$C9</f>
         <v>30</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="13">
         <f t="shared" ref="G12:N12" si="3">F12+$C9</f>
         <v>60</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="13">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="13">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="13">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12" s="14">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="14">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12" s="14">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="N12" s="21">
+      <c r="N12" s="15">
         <f t="shared" si="3"/>
         <v>270</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="6">
         <v>45</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="3">
         <v>1</v>
       </c>
-      <c r="E13" s="13">
-        <f t="shared" ref="E13:E32" si="4">ROUNDUP($C$3/$C13,0)*$C13-$C$3</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="13">
-        <f t="shared" ref="F13:F32" si="5">$E13+$C13</f>
+      <c r="E13" s="7">
+        <f t="shared" ref="E13" si="4">ROUNDUP($C$3/$C13,0)*$C13-$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" ref="F13" si="5">$E13+$C13</f>
         <v>45</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="7">
         <f t="shared" ref="G13:N13" si="6">F13+$C13</f>
         <v>90</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="7">
         <f t="shared" si="6"/>
         <v>135</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="7">
         <f t="shared" si="6"/>
         <v>180</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="7">
         <f t="shared" si="6"/>
         <v>225</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="8">
         <f t="shared" si="6"/>
         <v>270</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="8">
         <f t="shared" si="6"/>
         <v>315</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="8">
         <f t="shared" si="6"/>
         <v>360</v>
       </c>
-      <c r="N13" s="15">
+      <c r="N13" s="9">
         <f t="shared" si="6"/>
         <v>405</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="10">
+      <c r="C14" s="1"/>
+      <c r="D14" s="4">
         <v>2</v>
       </c>
-      <c r="E14" s="16">
-        <f t="shared" ref="E14:E32" si="7">ROUNDUP($C$4/$C13,0)*$C13-$C$4</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="16">
-        <f t="shared" ref="F14:F32" si="8">$E14+$C13</f>
+      <c r="E14" s="10">
+        <f t="shared" ref="E14" si="7">ROUNDUP($C$4/$C13,0)*$C13-$C$4</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" ref="F14" si="8">$E14+$C13</f>
         <v>45</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="10">
         <f t="shared" ref="G14" si="9">F14+$C13</f>
         <v>90</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="10">
         <f t="shared" ref="H14" si="10">G14+$C13</f>
         <v>135</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="10">
         <f t="shared" ref="I14" si="11">H14+$C13</f>
         <v>180</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="10">
         <f t="shared" ref="J14" si="12">I14+$C13</f>
         <v>225</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="11">
         <f t="shared" ref="K14" si="13">J14+$C13</f>
         <v>270</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="11">
         <f t="shared" ref="L14" si="14">K14+$C13</f>
         <v>315</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M14" s="11">
         <f t="shared" ref="M14" si="15">L14+$C13</f>
         <v>360</v>
       </c>
-      <c r="N14" s="18">
+      <c r="N14" s="12">
         <f t="shared" ref="N14" si="16">M14+$C13</f>
         <v>405</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="10">
+      <c r="C15" s="1"/>
+      <c r="D15" s="4">
         <v>3</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="10">
         <f t="shared" ref="E15" si="17">ROUNDUP($C$5/$C13,0)*$C13-$C$5</f>
         <v>0</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="10">
         <f t="shared" ref="F15" si="18">$E15+$C13</f>
         <v>45</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="10">
         <f t="shared" ref="G15:N15" si="19">F15+$C13</f>
         <v>90</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="10">
         <f t="shared" si="19"/>
         <v>135</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="10">
         <f t="shared" si="19"/>
         <v>180</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="10">
         <f t="shared" si="19"/>
         <v>225</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="11">
         <f t="shared" si="19"/>
         <v>270</v>
       </c>
-      <c r="L15" s="17">
+      <c r="L15" s="11">
         <f t="shared" si="19"/>
         <v>315</v>
       </c>
-      <c r="M15" s="17">
+      <c r="M15" s="11">
         <f t="shared" si="19"/>
         <v>360</v>
       </c>
-      <c r="N15" s="18">
+      <c r="N15" s="12">
         <f t="shared" si="19"/>
         <v>405</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="11">
+      <c r="C16" s="1"/>
+      <c r="D16" s="5">
         <v>4</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="13">
         <f t="shared" ref="E16" si="20">ROUNDUP($C$6/$C13,0)*$C13-$C$6</f>
         <v>0</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="13">
         <f t="shared" ref="F16" si="21">$E16+$C13</f>
         <v>45</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="13">
         <f t="shared" ref="G16:N16" si="22">F16+$C13</f>
         <v>90</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="13">
         <f t="shared" si="22"/>
         <v>135</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="13">
         <f t="shared" si="22"/>
         <v>180</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="13">
         <f t="shared" si="22"/>
         <v>225</v>
       </c>
-      <c r="K16" s="20">
+      <c r="K16" s="14">
         <f t="shared" si="22"/>
         <v>270</v>
       </c>
-      <c r="L16" s="20">
+      <c r="L16" s="14">
         <f t="shared" si="22"/>
         <v>315</v>
       </c>
-      <c r="M16" s="20">
+      <c r="M16" s="14">
         <f t="shared" si="22"/>
         <v>360</v>
       </c>
-      <c r="N16" s="21">
+      <c r="N16" s="15">
         <f t="shared" si="22"/>
         <v>405</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="6">
         <f>60+40</f>
         <v>100</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="3">
         <v>1</v>
       </c>
-      <c r="E17" s="13">
-        <f t="shared" ref="E17:E32" si="23">ROUNDUP($C$3/$C17,0)*$C17-$C$3</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="13">
-        <f t="shared" ref="F17:F32" si="24">$E17+$C17</f>
+      <c r="E17" s="7">
+        <f t="shared" ref="E17" si="23">ROUNDUP($C$3/$C17,0)*$C17-$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" ref="F17" si="24">$E17+$C17</f>
         <v>100</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="7">
         <f t="shared" ref="G17:N17" si="25">F17+$C17</f>
         <v>200</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="7">
         <f t="shared" si="25"/>
         <v>300</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="7">
         <f t="shared" si="25"/>
         <v>400</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="7">
         <f t="shared" si="25"/>
         <v>500</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="8">
         <f t="shared" si="25"/>
         <v>600</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L17" s="8">
         <f t="shared" si="25"/>
         <v>700</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M17" s="8">
         <f t="shared" si="25"/>
         <v>800</v>
       </c>
-      <c r="N17" s="15">
+      <c r="N17" s="9">
         <f t="shared" si="25"/>
         <v>900</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="10">
+      <c r="C18" s="1"/>
+      <c r="D18" s="4">
         <v>2</v>
       </c>
-      <c r="E18" s="16">
-        <f t="shared" ref="E18:E32" si="26">ROUNDUP($C$4/$C17,0)*$C17-$C$4</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="16">
-        <f t="shared" ref="F18:F32" si="27">$E18+$C17</f>
+      <c r="E18" s="10">
+        <f t="shared" ref="E18" si="26">ROUNDUP($C$4/$C17,0)*$C17-$C$4</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" ref="F18" si="27">$E18+$C17</f>
         <v>100</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="10">
         <f t="shared" ref="G18" si="28">F18+$C17</f>
         <v>200</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="10">
         <f t="shared" ref="H18" si="29">G18+$C17</f>
         <v>300</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I18" s="10">
         <f t="shared" ref="I18" si="30">H18+$C17</f>
         <v>400</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="10">
         <f t="shared" ref="J18" si="31">I18+$C17</f>
         <v>500</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="11">
         <f t="shared" ref="K18" si="32">J18+$C17</f>
         <v>600</v>
       </c>
-      <c r="L18" s="17">
+      <c r="L18" s="11">
         <f t="shared" ref="L18" si="33">K18+$C17</f>
         <v>700</v>
       </c>
-      <c r="M18" s="17">
+      <c r="M18" s="11">
         <f t="shared" ref="M18" si="34">L18+$C17</f>
         <v>800</v>
       </c>
-      <c r="N18" s="18">
+      <c r="N18" s="12">
         <f t="shared" ref="N18" si="35">M18+$C17</f>
         <v>900</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="10">
+      <c r="C19" s="1"/>
+      <c r="D19" s="4">
         <v>3</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="10">
         <f t="shared" ref="E19" si="36">ROUNDUP($C$5/$C17,0)*$C17-$C$5</f>
         <v>0</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="10">
         <f t="shared" ref="F19" si="37">$E19+$C17</f>
         <v>100</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="10">
         <f t="shared" ref="G19:N19" si="38">F19+$C17</f>
         <v>200</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H19" s="10">
         <f t="shared" si="38"/>
         <v>300</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="10">
         <f t="shared" si="38"/>
         <v>400</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="10">
         <f t="shared" si="38"/>
         <v>500</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="11">
         <f t="shared" si="38"/>
         <v>600</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L19" s="11">
         <f t="shared" si="38"/>
         <v>700</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M19" s="11">
         <f t="shared" si="38"/>
         <v>800</v>
       </c>
-      <c r="N19" s="18">
+      <c r="N19" s="12">
         <f t="shared" si="38"/>
         <v>900</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="11">
+      <c r="C20" s="1"/>
+      <c r="D20" s="5">
         <v>4</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="13">
         <f t="shared" ref="E20" si="39">ROUNDUP($C$6/$C17,0)*$C17-$C$6</f>
         <v>0</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="13">
         <f t="shared" ref="F20" si="40">$E20+$C17</f>
         <v>100</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="13">
         <f t="shared" ref="G20:N20" si="41">F20+$C17</f>
         <v>200</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="13">
         <f t="shared" si="41"/>
         <v>300</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="13">
         <f t="shared" si="41"/>
         <v>400</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="13">
         <f t="shared" si="41"/>
         <v>500</v>
       </c>
-      <c r="K20" s="20">
+      <c r="K20" s="14">
         <f t="shared" si="41"/>
         <v>600</v>
       </c>
-      <c r="L20" s="20">
+      <c r="L20" s="14">
         <f t="shared" si="41"/>
         <v>700</v>
       </c>
-      <c r="M20" s="20">
+      <c r="M20" s="14">
         <f t="shared" si="41"/>
         <v>800</v>
       </c>
-      <c r="N20" s="21">
+      <c r="N20" s="15">
         <f t="shared" si="41"/>
         <v>900</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="6">
         <f>60*2</f>
         <v>120</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="3">
         <v>1</v>
       </c>
-      <c r="E21" s="13">
-        <f t="shared" ref="E21:E32" si="42">ROUNDUP($C$3/$C21,0)*$C21-$C$3</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="13">
-        <f t="shared" ref="F21:F32" si="43">$E21+$C21</f>
+      <c r="E21" s="7">
+        <f t="shared" ref="E21" si="42">ROUNDUP($C$3/$C21,0)*$C21-$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
+        <f t="shared" ref="F21" si="43">$E21+$C21</f>
         <v>120</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="7">
         <f t="shared" ref="G21:N21" si="44">F21+$C21</f>
         <v>240</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="7">
         <f t="shared" si="44"/>
         <v>360</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="7">
         <f t="shared" si="44"/>
         <v>480</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="7">
         <f t="shared" si="44"/>
         <v>600</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K21" s="8">
         <f t="shared" si="44"/>
         <v>720</v>
       </c>
-      <c r="L21" s="14">
+      <c r="L21" s="8">
         <f t="shared" si="44"/>
         <v>840</v>
       </c>
-      <c r="M21" s="14">
+      <c r="M21" s="8">
         <f t="shared" si="44"/>
         <v>960</v>
       </c>
-      <c r="N21" s="15">
+      <c r="N21" s="9">
         <f t="shared" si="44"/>
         <v>1080</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="10">
+      <c r="C22" s="1"/>
+      <c r="D22" s="4">
         <v>2</v>
       </c>
-      <c r="E22" s="16">
-        <f t="shared" ref="E22:E32" si="45">ROUNDUP($C$4/$C21,0)*$C21-$C$4</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="16">
-        <f t="shared" ref="F22:F32" si="46">$E22+$C21</f>
+      <c r="E22" s="10">
+        <f t="shared" ref="E22" si="45">ROUNDUP($C$4/$C21,0)*$C21-$C$4</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" ref="F22" si="46">$E22+$C21</f>
         <v>120</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="10">
         <f t="shared" ref="G22" si="47">F22+$C21</f>
         <v>240</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H22" s="10">
         <f t="shared" ref="H22" si="48">G22+$C21</f>
         <v>360</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I22" s="10">
         <f t="shared" ref="I22" si="49">H22+$C21</f>
         <v>480</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J22" s="10">
         <f t="shared" ref="J22" si="50">I22+$C21</f>
         <v>600</v>
       </c>
-      <c r="K22" s="17">
+      <c r="K22" s="11">
         <f t="shared" ref="K22" si="51">J22+$C21</f>
         <v>720</v>
       </c>
-      <c r="L22" s="17">
+      <c r="L22" s="11">
         <f t="shared" ref="L22" si="52">K22+$C21</f>
         <v>840</v>
       </c>
-      <c r="M22" s="17">
+      <c r="M22" s="11">
         <f t="shared" ref="M22" si="53">L22+$C21</f>
         <v>960</v>
       </c>
-      <c r="N22" s="18">
+      <c r="N22" s="12">
         <f t="shared" ref="N22" si="54">M22+$C21</f>
         <v>1080</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="10">
+      <c r="C23" s="1"/>
+      <c r="D23" s="4">
         <v>3</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="10">
         <f t="shared" ref="E23" si="55">ROUNDUP($C$5/$C21,0)*$C21-$C$5</f>
         <v>0</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="10">
         <f t="shared" ref="F23" si="56">$E23+$C21</f>
         <v>120</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="10">
         <f t="shared" ref="G23:N23" si="57">F23+$C21</f>
         <v>240</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H23" s="10">
         <f t="shared" si="57"/>
         <v>360</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I23" s="10">
         <f t="shared" si="57"/>
         <v>480</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J23" s="10">
         <f t="shared" si="57"/>
         <v>600</v>
       </c>
-      <c r="K23" s="17">
+      <c r="K23" s="11">
         <f t="shared" si="57"/>
         <v>720</v>
       </c>
-      <c r="L23" s="17">
+      <c r="L23" s="11">
         <f t="shared" si="57"/>
         <v>840</v>
       </c>
-      <c r="M23" s="17">
+      <c r="M23" s="11">
         <f t="shared" si="57"/>
         <v>960</v>
       </c>
-      <c r="N23" s="18">
+      <c r="N23" s="12">
         <f t="shared" si="57"/>
         <v>1080</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="11">
+      <c r="C24" s="1"/>
+      <c r="D24" s="5">
         <v>4</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="13">
         <f t="shared" ref="E24" si="58">ROUNDUP($C$6/$C21,0)*$C21-$C$6</f>
         <v>0</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="13">
         <f t="shared" ref="F24" si="59">$E24+$C21</f>
         <v>120</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="13">
         <f t="shared" ref="G24:N24" si="60">F24+$C21</f>
         <v>240</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24" s="13">
         <f t="shared" si="60"/>
         <v>360</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="13">
         <f t="shared" si="60"/>
         <v>480</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J24" s="13">
         <f t="shared" si="60"/>
         <v>600</v>
       </c>
-      <c r="K24" s="20">
+      <c r="K24" s="14">
         <f t="shared" si="60"/>
         <v>720</v>
       </c>
-      <c r="L24" s="20">
+      <c r="L24" s="14">
         <f t="shared" si="60"/>
         <v>840</v>
       </c>
-      <c r="M24" s="20">
+      <c r="M24" s="14">
         <f t="shared" si="60"/>
         <v>960</v>
       </c>
-      <c r="N24" s="21">
+      <c r="N24" s="15">
         <f t="shared" si="60"/>
         <v>1080</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="6">
         <f>60*3</f>
         <v>180</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="3">
         <v>1</v>
       </c>
-      <c r="E25" s="13">
-        <f t="shared" ref="E25:E32" si="61">ROUNDUP($C$3/$C25,0)*$C25-$C$3</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="13">
-        <f t="shared" ref="F25:F32" si="62">$E25+$C25</f>
+      <c r="E25" s="7">
+        <f t="shared" ref="E25" si="61">ROUNDUP($C$3/$C25,0)*$C25-$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
+        <f t="shared" ref="F25" si="62">$E25+$C25</f>
         <v>180</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="7">
         <f t="shared" ref="G25:N25" si="63">F25+$C25</f>
         <v>360</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="7">
         <f t="shared" si="63"/>
         <v>540</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="7">
         <f t="shared" si="63"/>
         <v>720</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25" s="7">
         <f t="shared" si="63"/>
         <v>900</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K25" s="8">
         <f t="shared" si="63"/>
         <v>1080</v>
       </c>
-      <c r="L25" s="14">
+      <c r="L25" s="8">
         <f t="shared" si="63"/>
         <v>1260</v>
       </c>
-      <c r="M25" s="14">
+      <c r="M25" s="8">
         <f t="shared" si="63"/>
         <v>1440</v>
       </c>
-      <c r="N25" s="15">
+      <c r="N25" s="9">
         <f t="shared" si="63"/>
         <v>1620</v>
       </c>
     </row>
     <row r="26" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="10">
+      <c r="C26" s="1"/>
+      <c r="D26" s="4">
         <v>2</v>
       </c>
-      <c r="E26" s="16">
-        <f t="shared" ref="E26:E32" si="64">ROUNDUP($C$4/$C25,0)*$C25-$C$4</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="16">
-        <f t="shared" ref="F26:F32" si="65">$E26+$C25</f>
+      <c r="E26" s="10">
+        <f t="shared" ref="E26" si="64">ROUNDUP($C$4/$C25,0)*$C25-$C$4</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" ref="F26" si="65">$E26+$C25</f>
         <v>180</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="10">
         <f t="shared" ref="G26" si="66">F26+$C25</f>
         <v>360</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H26" s="10">
         <f t="shared" ref="H26" si="67">G26+$C25</f>
         <v>540</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I26" s="10">
         <f t="shared" ref="I26" si="68">H26+$C25</f>
         <v>720</v>
       </c>
-      <c r="J26" s="16">
+      <c r="J26" s="10">
         <f t="shared" ref="J26" si="69">I26+$C25</f>
         <v>900</v>
       </c>
-      <c r="K26" s="17">
+      <c r="K26" s="11">
         <f t="shared" ref="K26" si="70">J26+$C25</f>
         <v>1080</v>
       </c>
-      <c r="L26" s="17">
+      <c r="L26" s="11">
         <f t="shared" ref="L26" si="71">K26+$C25</f>
         <v>1260</v>
       </c>
-      <c r="M26" s="17">
+      <c r="M26" s="11">
         <f t="shared" ref="M26" si="72">L26+$C25</f>
         <v>1440</v>
       </c>
-      <c r="N26" s="18">
+      <c r="N26" s="12">
         <f t="shared" ref="N26" si="73">M26+$C25</f>
         <v>1620</v>
       </c>
     </row>
     <row r="27" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="10">
+      <c r="C27" s="1"/>
+      <c r="D27" s="4">
         <v>3</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="10">
         <f t="shared" ref="E27" si="74">ROUNDUP($C$5/$C25,0)*$C25-$C$5</f>
         <v>0</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="10">
         <f t="shared" ref="F27" si="75">$E27+$C25</f>
         <v>180</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G27" s="10">
         <f t="shared" ref="G27:N27" si="76">F27+$C25</f>
         <v>360</v>
       </c>
-      <c r="H27" s="16">
+      <c r="H27" s="10">
         <f t="shared" si="76"/>
         <v>540</v>
       </c>
-      <c r="I27" s="16">
+      <c r="I27" s="10">
         <f t="shared" si="76"/>
         <v>720</v>
       </c>
-      <c r="J27" s="16">
+      <c r="J27" s="10">
         <f t="shared" si="76"/>
         <v>900</v>
       </c>
-      <c r="K27" s="17">
+      <c r="K27" s="11">
         <f t="shared" si="76"/>
         <v>1080</v>
       </c>
-      <c r="L27" s="17">
+      <c r="L27" s="11">
         <f t="shared" si="76"/>
         <v>1260</v>
       </c>
-      <c r="M27" s="17">
+      <c r="M27" s="11">
         <f t="shared" si="76"/>
         <v>1440</v>
       </c>
-      <c r="N27" s="18">
+      <c r="N27" s="12">
         <f t="shared" si="76"/>
         <v>1620</v>
       </c>
     </row>
     <row r="28" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="11">
+      <c r="C28" s="1"/>
+      <c r="D28" s="5">
         <v>4</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="13">
         <f t="shared" ref="E28" si="77">ROUNDUP($C$6/$C25,0)*$C25-$C$6</f>
         <v>0</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="13">
         <f t="shared" ref="F28" si="78">$E28+$C25</f>
         <v>180</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="13">
         <f t="shared" ref="G28:N28" si="79">F28+$C25</f>
         <v>360</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28" s="13">
         <f t="shared" si="79"/>
         <v>540</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I28" s="13">
         <f t="shared" si="79"/>
         <v>720</v>
       </c>
-      <c r="J28" s="19">
+      <c r="J28" s="13">
         <f t="shared" si="79"/>
         <v>900</v>
       </c>
-      <c r="K28" s="20">
+      <c r="K28" s="14">
         <f t="shared" si="79"/>
         <v>1080</v>
       </c>
-      <c r="L28" s="20">
+      <c r="L28" s="14">
         <f t="shared" si="79"/>
         <v>1260</v>
       </c>
-      <c r="M28" s="20">
+      <c r="M28" s="14">
         <f t="shared" si="79"/>
         <v>1440</v>
       </c>
-      <c r="N28" s="21">
+      <c r="N28" s="15">
         <f t="shared" si="79"/>
         <v>1620</v>
       </c>
     </row>
     <row r="29" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="6">
         <f>60*5</f>
         <v>300</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="3">
         <v>1</v>
       </c>
-      <c r="E29" s="13">
-        <f t="shared" ref="E29:E32" si="80">ROUNDUP($C$3/$C29,0)*$C29-$C$3</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="13">
-        <f t="shared" ref="F29:F32" si="81">$E29+$C29</f>
+      <c r="E29" s="7">
+        <f t="shared" ref="E29" si="80">ROUNDUP($C$3/$C29,0)*$C29-$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="7">
+        <f t="shared" ref="F29" si="81">$E29+$C29</f>
         <v>300</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="7">
         <f t="shared" ref="G29:N29" si="82">F29+$C29</f>
         <v>600</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="7">
         <f t="shared" si="82"/>
         <v>900</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I29" s="7">
         <f t="shared" si="82"/>
         <v>1200</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J29" s="7">
         <f t="shared" si="82"/>
         <v>1500</v>
       </c>
-      <c r="K29" s="14">
+      <c r="K29" s="8">
         <f t="shared" si="82"/>
         <v>1800</v>
       </c>
-      <c r="L29" s="14">
+      <c r="L29" s="8">
         <f t="shared" si="82"/>
         <v>2100</v>
       </c>
-      <c r="M29" s="14">
+      <c r="M29" s="8">
         <f t="shared" si="82"/>
         <v>2400</v>
       </c>
-      <c r="N29" s="15">
+      <c r="N29" s="9">
         <f t="shared" si="82"/>
         <v>2700</v>
       </c>
     </row>
     <row r="30" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="10">
+      <c r="C30" s="1"/>
+      <c r="D30" s="4">
         <v>2</v>
       </c>
-      <c r="E30" s="16">
-        <f t="shared" ref="E30:E32" si="83">ROUNDUP($C$4/$C29,0)*$C29-$C$4</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="16">
-        <f t="shared" ref="F30:F32" si="84">$E30+$C29</f>
+      <c r="E30" s="10">
+        <f t="shared" ref="E30" si="83">ROUNDUP($C$4/$C29,0)*$C29-$C$4</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="10">
+        <f t="shared" ref="F30" si="84">$E30+$C29</f>
         <v>300</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="10">
         <f t="shared" ref="G30" si="85">F30+$C29</f>
         <v>600</v>
       </c>
-      <c r="H30" s="16">
+      <c r="H30" s="10">
         <f t="shared" ref="H30" si="86">G30+$C29</f>
         <v>900</v>
       </c>
-      <c r="I30" s="16">
+      <c r="I30" s="10">
         <f t="shared" ref="I30" si="87">H30+$C29</f>
         <v>1200</v>
       </c>
-      <c r="J30" s="16">
+      <c r="J30" s="10">
         <f t="shared" ref="J30" si="88">I30+$C29</f>
         <v>1500</v>
       </c>
-      <c r="K30" s="17">
+      <c r="K30" s="11">
         <f t="shared" ref="K30" si="89">J30+$C29</f>
         <v>1800</v>
       </c>
-      <c r="L30" s="17">
+      <c r="L30" s="11">
         <f t="shared" ref="L30" si="90">K30+$C29</f>
         <v>2100</v>
       </c>
-      <c r="M30" s="17">
+      <c r="M30" s="11">
         <f t="shared" ref="M30" si="91">L30+$C29</f>
         <v>2400</v>
       </c>
-      <c r="N30" s="18">
+      <c r="N30" s="12">
         <f t="shared" ref="N30" si="92">M30+$C29</f>
         <v>2700</v>
       </c>
     </row>
     <row r="31" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="8"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="10">
+      <c r="C31" s="1"/>
+      <c r="D31" s="4">
         <v>3</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="10">
         <f t="shared" ref="E31" si="93">ROUNDUP($C$5/$C29,0)*$C29-$C$5</f>
         <v>0</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="10">
         <f t="shared" ref="F31" si="94">$E31+$C29</f>
         <v>300</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G31" s="10">
         <f t="shared" ref="G31:N31" si="95">F31+$C29</f>
         <v>600</v>
       </c>
-      <c r="H31" s="16">
+      <c r="H31" s="10">
         <f t="shared" si="95"/>
         <v>900</v>
       </c>
-      <c r="I31" s="16">
+      <c r="I31" s="10">
         <f t="shared" si="95"/>
         <v>1200</v>
       </c>
-      <c r="J31" s="16">
+      <c r="J31" s="10">
         <f t="shared" si="95"/>
         <v>1500</v>
       </c>
-      <c r="K31" s="17">
+      <c r="K31" s="11">
         <f t="shared" si="95"/>
         <v>1800</v>
       </c>
-      <c r="L31" s="17">
+      <c r="L31" s="11">
         <f t="shared" si="95"/>
         <v>2100</v>
       </c>
-      <c r="M31" s="17">
+      <c r="M31" s="11">
         <f t="shared" si="95"/>
         <v>2400</v>
       </c>
-      <c r="N31" s="18">
+      <c r="N31" s="12">
         <f t="shared" si="95"/>
         <v>2700</v>
       </c>
     </row>
     <row r="32" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="8"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="11">
+      <c r="C32" s="1"/>
+      <c r="D32" s="5">
         <v>4</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="13">
         <f t="shared" ref="E32" si="96">ROUNDUP($C$6/$C29,0)*$C29-$C$6</f>
         <v>0</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="13">
         <f t="shared" ref="F32" si="97">$E32+$C29</f>
         <v>300</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="13">
         <f t="shared" ref="G32:N32" si="98">F32+$C29</f>
         <v>600</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H32" s="13">
         <f t="shared" si="98"/>
         <v>900</v>
       </c>
-      <c r="I32" s="19">
+      <c r="I32" s="13">
         <f t="shared" si="98"/>
         <v>1200</v>
       </c>
-      <c r="J32" s="19">
+      <c r="J32" s="13">
         <f t="shared" si="98"/>
         <v>1500</v>
       </c>
-      <c r="K32" s="20">
+      <c r="K32" s="14">
         <f t="shared" si="98"/>
         <v>1800</v>
       </c>
-      <c r="L32" s="20">
+      <c r="L32" s="14">
         <f t="shared" si="98"/>
         <v>2100</v>
       </c>
-      <c r="M32" s="20">
+      <c r="M32" s="14">
         <f t="shared" si="98"/>
         <v>2400</v>
       </c>
-      <c r="N32" s="21">
+      <c r="N32" s="15">
         <f t="shared" si="98"/>
         <v>2700</v>
       </c>
